--- a/cta策略/result/螺纹/Aberration_1d/wfo_最优两组参数的绩效.xlsx
+++ b/cta策略/result/螺纹/Aberration_1d/wfo_最优两组参数的绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>参数</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,36 +420,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1292103737819505</v>
+        <v>0.05160359841423778</v>
       </c>
       <c r="D2">
-        <v>0.4586341861320526</v>
+        <v>0.1381020072357023</v>
       </c>
       <c r="E2">
-        <v>0.2973197878716997</v>
+        <v>0.2405618343657733</v>
       </c>
       <c r="F2">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.1090067225430704</v>
-      </c>
-      <c r="D3">
-        <v>0.3572121404272123</v>
-      </c>
-      <c r="E3">
-        <v>0.2618010530434915</v>
-      </c>
-      <c r="F3">
-        <v>0.6875</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
   </sheetData>
